--- a/pred_ohlcv/54_21/2019-10-10 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 TRUE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>254940.2474</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>272273.2718</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>243647.567728125</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>264356.0617871368</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>262557.3813871368</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>262557.3813871368</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>259866.5278871368</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>258655.5131871368</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>253225.5250871368</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>243219.5244871368</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>243219.5244871368</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>245713.0227871368</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>238641.4906604268</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>238642.4906604268</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>240812.8550604268</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>258686.3249604268</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>282065.4540604268</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>282065.4540604268</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>277826.9927645688</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>244973.6212948718</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>246641.615537729</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>246640.993137729</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>246004.993137729</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>247553.2343251542</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>247226.7098576843</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>247226.7098576843</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>247166.3439576843</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>157382.9232167892</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>154542.4079167892</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>157107.9109167892</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>157107.9109167892</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>156460.6949167892</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>156604.6400167893</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>156604.6400167893</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>156604.6400167893</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>156912.4043167893</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>156907.4043167893</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>155845.6285167893</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>155845.6285167893</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>151675.3659167893</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>151675.3659167893</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>151678.3659167893</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>151937.5185167893</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>151937.5185167893</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>181089.8423748538</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>184437.8066748538</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>186333.8443748538</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>190628.2077748538</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>298731.8552886825</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>291950.2181886825</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>295934.3014447297</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>290270.5640447297</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>274212.4503447298</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>269870.2093447298</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>263829.2493447298</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>273955.1939447297</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>275403.1825447297</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>299678.1339559974</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>371530.2381447298</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>342006.2772468919</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>337219.2492291054</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>337229.2492291054</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>398873.5499624388</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>397593.6041624388</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>397656.7854624388</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>397656.7854624388</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>382851.9673624389</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>384597.1745747676</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>426428.3630932966</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>424666.0085932966</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>424251.0085932966</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>425304.4824932966</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>494751.4812932966</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>492547.0543932966</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>495232.6289324719</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>489189.6123324719</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>482606.9004324719</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>485289.9658324719</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>490600.1682324719</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>490600.1682324719</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>487917.0805324719</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>488683.6391324719</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>486655.9745324719</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>478290.5885324719</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>478290.5885324719</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>479164.3578918302</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>437405.7107918302</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>440324.7298918302</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>419883.3736918302</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>411493.6106918302</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>413501.5509918302</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>427699.4980210194</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>427651.4980210194</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>425138.3182210195</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>414356.5646210195</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>415496.6881210195</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>415496.6881210195</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>412782.6845210195</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>412832.8182210195</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>412450.4216210195</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>397482.7480210195</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>466950.5496360717</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>466541.0599360717</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>467665.4533360717</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>472194.4367360718</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>465096.4335360718</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>465006.7589360718</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>452765.8662360717</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>454032.8693925935</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>454032.8693925935</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>445396.6059925935</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>432630.1647925935</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>435759.9374925935</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>450168.6877925935</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>444050.7067925935</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>444050.7067925935</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>443717.3395925935</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>443717.3395925935</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>448346.7057925935</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>456356.7057925935</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>456356.7057925935</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>451230.9853925935</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>452238.8437925935</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>452004.6936925935</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>448649.8329925935</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>454660.5801005824</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>448380.7413005824</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>469980.1325005824</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>453193.1827005824</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>453097.4221005825</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>452826.2683005825</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>453351.2413005825</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>452995.2413005825</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>453026.2413005825</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>453025.2413005825</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>451436.4536005825</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>451757.9658621629</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>451756.9658621629</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>454452.3835621629</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>454161.0309621629</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-10 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 TRUE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>254940.2474</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>272273.2718</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>243647.567728125</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>264356.0617871368</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>262557.3813871368</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>262557.3813871368</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>259866.5278871368</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>258655.5131871368</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>253225.5250871368</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>282065.4540604268</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>282065.4540604268</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>277826.9927645688</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>244973.6212948718</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>246641.615537729</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>246640.993137729</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>246004.993137729</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>247553.2343251542</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>247226.7098576843</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>247226.7098576843</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>247166.3439576843</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>151606.1960167893</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>151937.5185167893</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>151937.5185167893</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>151937.5185167893</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>151560.9534167893</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>149869.2599167893</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>149869.2599167893</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>149869.2599167893</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>149869.2599167893</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>149878.2599167893</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>149444.6942167893</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>149444.6942167893</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>149560.5680167893</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>149676.4418167893</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>149413.6295167893</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>149075.0146167893</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>149075.0146167893</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>148653.1799167893</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>156251.4683748538</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>158303.5715748538</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>158568.8667748538</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>172576.4804748538</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>298731.8552886825</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>291950.2181886825</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>295934.3014447297</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>290270.5640447297</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>274212.4503447298</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>269870.2093447298</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>263829.2493447298</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>273955.1939447297</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>275403.1825447297</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>299678.1339559974</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>371530.2381447298</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>342006.2772468919</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>342006.2772468919</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>391032.2431680243</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>381673.0937680243</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>393777.4712680243</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>376038.5173192438</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>385285.1171192438</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>382740.3943192438</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>383973.0599192439</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>383565.6479192438</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>368854.3314192438</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>354558.0167192438</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>337219.2492291054</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>337229.2492291054</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>397593.6041624388</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>397656.7854624388</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>397656.7854624388</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>382851.9673624389</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>424666.0085932966</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>494751.4812932966</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>492547.0543932966</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>495232.6289324719</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>489189.6123324719</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>482606.9004324719</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>485289.9658324719</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>490600.1682324719</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>490600.1682324719</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>487917.0805324719</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>488683.6391324719</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>486655.9745324719</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>478290.5885324719</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>478290.5885324719</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>479164.3578918302</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>474339.9661918302</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>437405.7107918302</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>440324.7298918302</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>419883.3736918302</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>425138.3182210195</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>466541.0599360717</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>467665.4533360717</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>472194.4367360718</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>465096.4335360718</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>465006.7589360718</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>452765.8662360717</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>454032.8693925935</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>444050.7067925935</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>444050.7067925935</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>452238.8437925935</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>452004.6936925935</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>448649.8329925935</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>454660.5801005824</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>469980.1325005824</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>453193.1827005824</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>453097.4221005825</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
